--- a/mapping/mml_registered_diagnosis_mapping.xlsx
+++ b/mapping/mml_registered_diagnosis_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
   <si>
     <t>MML</t>
     <phoneticPr fontId="1"/>
@@ -178,10 +178,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis-mml.v1 and name/value='Problem/Diagnosis for MML adaptation']/data[at0001]/items[at0002]/defining_code/code_string/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>category</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -221,6 +217,17 @@
   </si>
   <si>
     <t>related heanth insurance/uid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis-mml.v1 and name/value='Problem/Diagnosis for MML adaptation']/data[at0001]/items[at0002]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_CODED_TEXTとして保存する</t>
+    <rPh sb="16" eb="18">
+      <t>ホゾン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -245,12 +252,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -282,7 +295,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -290,6 +303,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -593,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -666,14 +682,14 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="1"/>
       <c r="I5" t="s">
         <v>47</v>
@@ -684,14 +700,14 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="1"/>
@@ -701,19 +717,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="1"/>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -748,14 +764,14 @@
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="1"/>
       <c r="I10" t="s">
         <v>47</v>
@@ -766,14 +782,14 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="1"/>
@@ -783,19 +799,19 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="1"/>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -830,10 +846,10 @@
         <v>24</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" t="s">
         <v>51</v>
-      </c>
-      <c r="J14" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -866,10 +882,10 @@
       </c>
       <c r="F16" s="1"/>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
@@ -888,10 +904,10 @@
       </c>
       <c r="F17" s="1"/>
       <c r="I17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
@@ -912,10 +928,10 @@
         <v>41</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
@@ -934,10 +950,10 @@
       </c>
       <c r="F19" s="1"/>
       <c r="I19" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
@@ -968,10 +984,15 @@
       </c>
       <c r="F21" s="1"/>
       <c r="I21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J21" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B23" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/mml_registered_diagnosis_mapping.xlsx
+++ b/mapping/mml_registered_diagnosis_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
   <si>
     <t>MML</t>
     <phoneticPr fontId="1"/>
@@ -178,10 +178,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>category</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis-mml.v1 and name/value='Problem/Diagnosis for MML adaptation']/data[at0001]/items[at0.50 and name/value='category']</t>
   </si>
   <si>
@@ -189,10 +185,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Dete of resolution</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis-mml.v1 and name/value='Problem/Diagnosis for MML adaptation']/data[at0001]/items[at0003]</t>
   </si>
   <si>
@@ -209,15 +201,7 @@
     <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis-mml.v1 and name/value='Problem/Diagnosis for MML adaptation']/data[at0001]/items[at0.49]</t>
   </si>
   <si>
-    <t>firstEncounterDate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis-mml.v1 and name/value='Problem/Diagnosis for MML adaptation']/data[at0001]/items[at0.53]/items[at0.54]</t>
-  </si>
-  <si>
-    <t>related heanth insurance/uid</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis-mml.v1 and name/value='Problem/Diagnosis for MML adaptation']/data[at0001]/items[at0002]/defining_code/terminology_id/value</t>
@@ -228,6 +212,35 @@
     <rPh sb="16" eb="18">
       <t>ホゾン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlRd:diagnosisContentsは現在使用されていないのでマッピングは行わない</t>
+    <rPh sb="24" eb="26">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*category</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*firstEncounterDate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*related heanth insurance/uid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Date of resolution</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -252,7 +265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +275,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,7 +314,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -305,7 +324,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -609,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -729,50 +754,50 @@
       </c>
       <c r="F7" s="1"/>
       <c r="J7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
       <c r="I10" t="s">
         <v>47</v>
       </c>
@@ -781,37 +806,37 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="4"/>
       <c r="J11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="4"/>
       <c r="J12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -845,11 +870,11 @@
       <c r="F14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" t="s">
         <v>50</v>
-      </c>
-      <c r="J14" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -882,10 +907,10 @@
       </c>
       <c r="F16" s="1"/>
       <c r="I16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" t="s">
         <v>52</v>
-      </c>
-      <c r="J16" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
@@ -904,10 +929,10 @@
       </c>
       <c r="F17" s="1"/>
       <c r="I17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" t="s">
         <v>53</v>
-      </c>
-      <c r="J17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
@@ -928,10 +953,10 @@
         <v>41</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
@@ -949,11 +974,11 @@
         <v>9</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="I19" s="2" t="s">
-        <v>59</v>
+      <c r="I19" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
@@ -983,16 +1008,21 @@
         <v>7</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="I21" s="2" t="s">
-        <v>61</v>
+      <c r="I21" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="J21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B24" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/mml_registered_diagnosis_mapping.xlsx
+++ b/mapping/mml_registered_diagnosis_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
   <si>
     <t>MML</t>
     <phoneticPr fontId="1"/>
@@ -178,30 +178,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis-mml.v1 and name/value='Problem/Diagnosis for MML adaptation']/data[at0001]/items[at0.50 and name/value='category']</t>
-  </si>
-  <si>
     <t>Date of onset</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis-mml.v1 and name/value='Problem/Diagnosis for MML adaptation']/data[at0001]/items[at0003]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis-mml.v1 and name/value='Problem/Diagnosis for MML adaptation']/data[at0001]/items[at0030]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis-mml.v1 and name/value='Problem/Diagnosis for MML adaptation']/data[at0001]/items[at0.47]</t>
-  </si>
-  <si>
     <t>outcome</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis-mml.v1 and name/value='Problem/Diagnosis for MML adaptation']/data[at0001]/items[at0.49]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis-mml.v1 and name/value='Problem/Diagnosis for MML adaptation']/data[at0001]/items[at0.53]/items[at0.54]</t>
   </si>
   <si>
     <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis-mml.v1 and name/value='Problem/Diagnosis for MML adaptation']/data[at0001]/items[at0002]/defining_code/terminology_id/value</t>
@@ -241,6 +223,73 @@
   </si>
   <si>
     <t>Date of resolution</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値は'='</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis-mml.v1 and name/value='Problem/Diagnosis for MML adaptation']/data[at0001]/items[at0002]/term_mappings[1]/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis-mml.v1 and name/value='Problem/Diagnosis for MML adaptation']/data[at0001]/items[at0002]/term_mappings[1]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis-mml.v1 and name/value='Problem/Diagnosis for MML adaptation']/data[at0001]/items[at0002]/term_mappings[1]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis-mml.v1 and name/value='Problem/Diagnosis for MML adaptation']/data[at0001]/items[at0.50 and name/value='category']/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis-mml.v1 and name/value='Problem/Diagnosis for MML adaptation']/data[at0001]/items[at0003]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis-mml.v1 and name/value='Problem/Diagnosis for MML adaptation']/data[at0001]/items[at0030]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis-mml.v1 and name/value='Problem/Diagnosis for MML adaptation']/data[at0001]/items[at0.47]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis-mml.v1 and name/value='Problem/Diagnosis for MML adaptation']/data[at0001]/items[at0.49]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis-mml.v1 and name/value='Problem/Diagnosis for MML adaptation']/data[at0001]/items[at0.53]/items[at0.54]/value</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -314,7 +363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -332,6 +381,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -646,9 +698,10 @@
     <col min="3" max="3" width="17.375" customWidth="1"/>
     <col min="5" max="5" width="10.625" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
+    <col min="10" max="10" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -656,7 +709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -666,8 +719,11 @@
       <c r="I2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -688,7 +744,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -703,7 +759,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -720,10 +776,13 @@
         <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+      <c r="K5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
@@ -736,11 +795,11 @@
         <v>7</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="J6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
@@ -753,80 +812,77 @@
         <v>7</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="K7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1"/>
+      <c r="J8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="I10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="J11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>6</v>
@@ -835,90 +891,88 @@
         <v>7</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="J12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+      <c r="K12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="K13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="I16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
@@ -928,101 +982,138 @@
         <v>9</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="I17" s="2" t="s">
-        <v>64</v>
+      <c r="I17" t="s">
+        <v>50</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+      <c r="K17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="F18" s="1"/>
       <c r="I18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="I19" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
+      <c r="I20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="I21" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="F22" s="1"/>
+      <c r="I22" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="J22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B25" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/mml_registered_diagnosis_mapping.xlsx
+++ b/mapping/mml_registered_diagnosis_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
   <si>
     <t>MML</t>
     <phoneticPr fontId="1"/>
@@ -187,13 +187,6 @@
   </si>
   <si>
     <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis-mml.v1 and name/value='Problem/Diagnosis for MML adaptation']/data[at0001]/items[at0002]/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DV_CODED_TEXTとして保存する</t>
-    <rPh sb="16" eb="18">
-      <t>ホゾン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -688,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -720,7 +713,7 @@
         <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -776,7 +769,7 @@
         <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K5" t="s">
         <v>49</v>
@@ -796,7 +789,7 @@
       </c>
       <c r="F6" s="1"/>
       <c r="K6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -813,7 +806,7 @@
       </c>
       <c r="F7" s="1"/>
       <c r="K7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
@@ -824,10 +817,10 @@
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
       <c r="J8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" t="s">
         <v>61</v>
-      </c>
-      <c r="K8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
@@ -944,13 +937,13 @@
         <v>24</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" t="s">
         <v>65</v>
-      </c>
-      <c r="K15" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
@@ -986,10 +979,10 @@
         <v>50</v>
       </c>
       <c r="J17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
@@ -1008,13 +1001,13 @@
       </c>
       <c r="F18" s="1"/>
       <c r="I18" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" t="s">
         <v>68</v>
-      </c>
-      <c r="K18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
@@ -1038,10 +1031,10 @@
         <v>51</v>
       </c>
       <c r="J19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" t="s">
         <v>70</v>
-      </c>
-      <c r="K19" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -1060,13 +1053,13 @@
       </c>
       <c r="F20" s="1"/>
       <c r="I20" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" t="s">
         <v>72</v>
-      </c>
-      <c r="K20" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
@@ -1097,23 +1090,21 @@
       </c>
       <c r="F22" s="1"/>
       <c r="I22" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/mml_registered_diagnosis_mapping.xlsx
+++ b/mapping/mml_registered_diagnosis_mapping.xlsx
@@ -234,18 +234,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis-mml.v1 and name/value='Problem/Diagnosis for MML adaptation']/data[at0001]/items[at0002]/term_mappings[1]/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis-mml.v1 and name/value='Problem/Diagnosis for MML adaptation']/data[at0001]/items[at0002]/term_mappings[1]/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis-mml.v1 and name/value='Problem/Diagnosis for MML adaptation']/data[at0001]/items[at0002]/term_mappings[1]/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DV_TEXT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -283,6 +271,18 @@
   </si>
   <si>
     <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis-mml.v1 and name/value='Problem/Diagnosis for MML adaptation']/data[at0001]/items[at0.53]/items[at0.54]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis-mml.v1 and name/value='Problem/Diagnosis for MML adaptation']/data[at0001]/items[at0002]/mappings/target/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis-mml.v1 and name/value='Problem/Diagnosis for MML adaptation']/data[at0001]/items[at0002]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis-mml.v1 and name/value='Problem/Diagnosis for MML adaptation']/data[at0001]/items[at0002]/mappings/match</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -789,7 +789,7 @@
       </c>
       <c r="F6" s="1"/>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -806,7 +806,7 @@
       </c>
       <c r="F7" s="1"/>
       <c r="K7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
@@ -820,7 +820,7 @@
         <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
@@ -940,10 +940,10 @@
         <v>54</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
@@ -979,10 +979,10 @@
         <v>50</v>
       </c>
       <c r="J17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
@@ -1004,10 +1004,10 @@
         <v>57</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
@@ -1031,10 +1031,10 @@
         <v>51</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -1056,10 +1056,10 @@
         <v>55</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
@@ -1093,10 +1093,10 @@
         <v>56</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">

--- a/mapping/mml_registered_diagnosis_mapping.xlsx
+++ b/mapping/mml_registered_diagnosis_mapping.xlsx
@@ -122,9 +122,6 @@
     <t>mmlRd:dxItem</t>
   </si>
   <si>
-    <t>1.2.2.</t>
-  </si>
-  <si>
     <t>mmlRd:name</t>
   </si>
   <si>
@@ -285,12 +282,16 @@
     <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis-mml.v1 and name/value='Problem/Diagnosis for MML adaptation']/data[at0001]/items[at0002]/mappings/match</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>1.2.1.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +302,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -356,7 +365,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -378,6 +387,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -390,6 +402,73 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>131379</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>65689</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1609396</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>54740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="円形吹き出し 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7127327" y="4269827"/>
+          <a:ext cx="2167759" cy="503620"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -352748"/>
+            <a:gd name="adj2" fmla="val -528805"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>MML</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の間違い訂正</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -681,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="G26" sqref="G25:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -713,7 +792,7 @@
         <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -734,7 +813,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -749,7 +828,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -766,13 +845,13 @@
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -789,7 +868,7 @@
       </c>
       <c r="F6" s="1"/>
       <c r="K6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -806,7 +885,7 @@
       </c>
       <c r="F7" s="1"/>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
@@ -817,10 +896,10 @@
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
       <c r="J8" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
@@ -852,11 +931,11 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
@@ -865,10 +944,10 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="I11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" t="s">
         <v>47</v>
-      </c>
-      <c r="K11" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
@@ -885,7 +964,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="K12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
@@ -902,7 +981,7 @@
       </c>
       <c r="F13" s="4"/>
       <c r="K13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
@@ -910,7 +989,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -924,7 +1003,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -937,20 +1016,20 @@
         <v>24</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" t="s">
         <v>61</v>
-      </c>
-      <c r="K15" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>6</v>
@@ -965,7 +1044,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
@@ -976,13 +1055,13 @@
       </c>
       <c r="F17" s="1"/>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
@@ -990,7 +1069,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
@@ -1001,13 +1080,13 @@
       </c>
       <c r="F18" s="1"/>
       <c r="I18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" t="s">
         <v>64</v>
-      </c>
-      <c r="K18" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
@@ -1015,7 +1094,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
@@ -1025,16 +1104,16 @@
         <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" t="s">
         <v>66</v>
-      </c>
-      <c r="K19" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -1042,7 +1121,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
@@ -1053,13 +1132,13 @@
       </c>
       <c r="F20" s="1"/>
       <c r="I20" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K20" t="s">
         <v>68</v>
-      </c>
-      <c r="K20" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
@@ -1067,7 +1146,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1080,7 +1159,7 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>6</v>
@@ -1090,13 +1169,13 @@
       </c>
       <c r="F22" s="1"/>
       <c r="I22" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
@@ -1104,12 +1183,13 @@
     </row>
     <row r="25" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/mapping/mml_registered_diagnosis_mapping.xlsx
+++ b/mapping/mml_registered_diagnosis_mapping.xlsx
@@ -761,7 +761,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="G26" sqref="G25:G26"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
